--- a/biology/Zoologie/Diolenius_phrynoides/Diolenius_phrynoides.xlsx
+++ b/biology/Zoologie/Diolenius_phrynoides/Diolenius_phrynoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diolenius phrynoides est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diolenius phrynoides est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Indonésie[1],[2]. Elle se rencontre à Ambon et en Nouvelle-Guinée occidentale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Indonésie,. Elle se rencontre à Ambon et en Nouvelle-Guinée occidentale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Gardzińska et Żabka en 2006 mesure 3,50 mm de long sur 2,20 mm et l'abdomen 4,93 mm de long sur 2,15 mm et la carapace de la femelle mesure 2,85 mm de long sur 1,80 mm et l'abdomen 4,40 mm de long sur 2,25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Gardzińska et Żabka en 2006 mesure 3,50 mm de long sur 2,20 mm et l'abdomen 4,93 mm de long sur 2,15 mm et la carapace de la femelle mesure 2,85 mm de long sur 1,80 mm et l'abdomen 4,40 mm de long sur 2,25 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Walckenaer, 1837 : Histoire naturelle des insectes. Aptères. Paris, vol. 1, p. 1-682 (texte intégral).</t>
         </is>
